--- a/analysis/analysis I/results/probit_socioeconomic.xlsx
+++ b/analysis/analysis I/results/probit_socioeconomic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/automated/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/Documents/GitHub/flood-experience/analysis/analysis I/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7887E89-1B0D-4445-B747-F1BF6AB877E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFBDABD-D43A-5943-93E1-3A78A6B7FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25320" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
-  <si>
-    <t>function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>beta</t>
   </si>
@@ -46,24 +43,6 @@
     <t>dy/dx</t>
   </si>
   <si>
-    <t>Std. Err.</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>Pr(&gt;|z|)</t>
-  </si>
-  <si>
-    <t>Conf. Int. Low</t>
-  </si>
-  <si>
-    <t>Cont. Int. Hi.</t>
-  </si>
-  <si>
-    <t>made_safer ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -85,38 +64,44 @@
     <t>rentmortgage</t>
   </si>
   <si>
-    <t>documents ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>insured ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>learned_routes ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>supplies ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>involved ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>made_plan ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>practiced_drills ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>alerts ~ age + income + sex + education + homeownership + rentmortgage</t>
-  </si>
-  <si>
-    <t>family_communication ~ age + income + sex + education + homeownership + rentmortgage</t>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>made_safer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned_routes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">involved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">made_plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practiced_drills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alerts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">family_communication </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +111,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -174,6 +164,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,64 +470,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:M42"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.5" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>-0.83</v>
@@ -551,10 +537,10 @@
         <v>483.26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-3.0000000000000001E-3</v>
@@ -574,26 +560,11 @@
       <c r="H3">
         <v>-1E-3</v>
       </c>
-      <c r="I3">
-        <v>1E-3</v>
-      </c>
-      <c r="J3">
-        <v>-0.83399999999999996</v>
-      </c>
-      <c r="K3">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="L3">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -613,26 +584,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>-1.994</v>
-      </c>
-      <c r="K4">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5">
         <v>6.7000000000000004E-2</v>
@@ -652,26 +608,11 @@
       <c r="H5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.48</v>
-      </c>
-      <c r="K5">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="L5">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="M5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C6">
         <v>-4.2999999999999997E-2</v>
@@ -691,26 +632,11 @@
       <c r="H6">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="I6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J6">
-        <v>-0.80600000000000005</v>
-      </c>
-      <c r="K6">
-        <v>0.42</v>
-      </c>
-      <c r="L6">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="M6">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0.38100000000000001</v>
@@ -730,26 +656,11 @@
       <c r="H7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="I7">
-        <v>0.04</v>
-      </c>
-      <c r="J7">
-        <v>2.468</v>
-      </c>
-      <c r="K7">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L7">
-        <v>0.02</v>
-      </c>
-      <c r="M7">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -769,28 +680,13 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="K8">
-        <v>9.4E-2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C9">
         <v>-1.323</v>
@@ -808,10 +704,10 @@
         <v>479.87099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C10">
         <v>4.0000000000000001E-3</v>
@@ -831,26 +727,11 @@
       <c r="H10">
         <v>1E-3</v>
       </c>
-      <c r="I10">
-        <v>1E-3</v>
-      </c>
-      <c r="J10">
-        <v>1.075</v>
-      </c>
-      <c r="K10">
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="L10">
-        <v>-1E-3</v>
-      </c>
-      <c r="M10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -870,26 +751,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0.10100000000000001</v>
@@ -909,26 +775,11 @@
       <c r="H12">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="K12">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="L12">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="M12">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1.4999999999999999E-2</v>
@@ -948,26 +799,11 @@
       <c r="H13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J13">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="K13">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="L13">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="M13">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C14">
         <v>5.3999999999999999E-2</v>
@@ -987,26 +823,11 @@
       <c r="H14">
         <v>1.4E-2</v>
       </c>
-      <c r="I14">
-        <v>0.04</v>
-      </c>
-      <c r="J14">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="K14">
-        <v>0.73</v>
-      </c>
-      <c r="L14">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="M14">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1026,28 +847,13 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C16">
         <v>-0.99099999999999999</v>
@@ -1065,10 +871,10 @@
         <v>515.76</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C17">
         <v>-8.0000000000000002E-3</v>
@@ -1088,26 +894,11 @@
       <c r="H17">
         <v>-2E-3</v>
       </c>
-      <c r="I17">
-        <v>1E-3</v>
-      </c>
-      <c r="J17">
-        <v>-2.1890000000000001</v>
-      </c>
-      <c r="K17">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="L17">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1127,26 +918,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>-0.89500000000000002</v>
-      </c>
-      <c r="K18">
-        <v>0.371</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C19">
         <v>0.16700000000000001</v>
@@ -1166,26 +942,11 @@
       <c r="H19">
         <v>4.7E-2</v>
       </c>
-      <c r="I19">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J19">
-        <v>1.218</v>
-      </c>
-      <c r="K19">
-        <v>0.223</v>
-      </c>
-      <c r="L19">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="M19">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C20">
         <v>6.0999999999999999E-2</v>
@@ -1205,26 +966,11 @@
       <c r="H20">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I20">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J20">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="K20">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L20">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="M20">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C21">
         <v>0.47299999999999998</v>
@@ -1244,26 +990,11 @@
       <c r="H21">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I21">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J21">
-        <v>3.1749999999999998</v>
-      </c>
-      <c r="K21">
-        <v>1E-3</v>
-      </c>
-      <c r="L21">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="M21">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1283,28 +1014,13 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1.623</v>
-      </c>
-      <c r="K22">
-        <v>0.105</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C23">
         <v>-0.95699999999999996</v>
@@ -1322,10 +1038,10 @@
         <v>545.69100000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C24">
         <v>1E-3</v>
@@ -1345,26 +1061,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>1E-3</v>
-      </c>
-      <c r="J24">
-        <v>0.26</v>
-      </c>
-      <c r="K24">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="L24">
-        <v>-2E-3</v>
-      </c>
-      <c r="M24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1384,26 +1085,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.24</v>
-      </c>
-      <c r="K25">
-        <v>0.81</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C26">
         <v>0.154</v>
@@ -1423,26 +1109,11 @@
       <c r="H26">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I26">
-        <v>0.04</v>
-      </c>
-      <c r="J26">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="K26">
-        <v>0.245</v>
-      </c>
-      <c r="L26">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="M26">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>-8.0000000000000002E-3</v>
@@ -1462,26 +1133,11 @@
       <c r="H27">
         <v>-2E-3</v>
       </c>
-      <c r="I27">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J27">
-        <v>-0.158</v>
-      </c>
-      <c r="K27">
-        <v>0.875</v>
-      </c>
-      <c r="L27">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="M27">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>19</v>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C28">
         <v>-3.6999999999999998E-2</v>
@@ -1501,26 +1157,11 @@
       <c r="H28">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="I28">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J28">
-        <v>-0.252</v>
-      </c>
-      <c r="K28">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="L28">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="M28">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1540,28 +1181,13 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1.103</v>
-      </c>
-      <c r="K29">
-        <v>0.27</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C30">
         <v>-0.41799999999999998</v>
@@ -1579,10 +1205,10 @@
         <v>524.72299999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C31">
         <v>-8.9999999999999993E-3</v>
@@ -1602,26 +1228,11 @@
       <c r="H31">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="I31">
-        <v>1E-3</v>
-      </c>
-      <c r="J31">
-        <v>-2.6219999999999999</v>
-      </c>
-      <c r="K31">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L31">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="M31">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="1" t="s">
-        <v>16</v>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1641,26 +1252,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>-1.343</v>
-      </c>
-      <c r="K32">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C33">
         <v>7.4999999999999997E-2</v>
@@ -1680,26 +1276,11 @@
       <c r="H33">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I33">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J33">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="K33">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="L33">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M33">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="1" t="s">
-        <v>18</v>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>-4.7E-2</v>
@@ -1719,26 +1300,11 @@
       <c r="H34">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="I34">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J34">
-        <v>-0.92900000000000005</v>
-      </c>
-      <c r="K34">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="L34">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="M34">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C35">
         <v>0.29199999999999998</v>
@@ -1758,26 +1324,11 @@
       <c r="H35">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I35">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J35">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="K35">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1797,28 +1348,13 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="K36">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C37">
         <v>-0.59199999999999997</v>
@@ -1836,10 +1372,10 @@
         <v>302.92700000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C38">
         <v>-1.9E-2</v>
@@ -1859,26 +1395,11 @@
       <c r="H38">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="I38">
-        <v>1E-3</v>
-      </c>
-      <c r="J38">
-        <v>-3.6059999999999999</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M38">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1898,26 +1419,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="K39">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C40">
         <v>5.6000000000000001E-2</v>
@@ -1937,26 +1443,11 @@
       <c r="H40">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I40">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J40">
-        <v>0.31</v>
-      </c>
-      <c r="K40">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="L40">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="M40">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>18</v>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C41">
         <v>9.5000000000000001E-2</v>
@@ -1976,26 +1467,11 @@
       <c r="H41">
         <v>1.4E-2</v>
       </c>
-      <c r="I41">
-        <v>0.01</v>
-      </c>
-      <c r="J41">
-        <v>1.45</v>
-      </c>
-      <c r="K41">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="L41">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="M41">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
-        <v>19</v>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C42">
         <v>-0.40799999999999997</v>
@@ -2015,26 +1491,11 @@
       <c r="H42">
         <v>-6.0999999999999999E-2</v>
       </c>
-      <c r="I42">
-        <v>0.03</v>
-      </c>
-      <c r="J42">
-        <v>-2.0190000000000001</v>
-      </c>
-      <c r="K42">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L42">
-        <v>-0.11899999999999999</v>
-      </c>
-      <c r="M42">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
+      <c r="B43" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2054,28 +1515,13 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>-0.40699999999999997</v>
-      </c>
-      <c r="K43">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C44">
         <v>-0.60199999999999998</v>
@@ -2093,10 +1539,10 @@
         <v>531.529</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C45">
         <v>-5.0000000000000001E-3</v>
@@ -2116,26 +1562,11 @@
       <c r="H45">
         <v>-2E-3</v>
       </c>
-      <c r="I45">
-        <v>1E-3</v>
-      </c>
-      <c r="J45">
-        <v>-1.5</v>
-      </c>
-      <c r="K45">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="L45">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
-        <v>16</v>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2155,26 +1586,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0.2</v>
-      </c>
-      <c r="K46">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C47">
         <v>6.0999999999999999E-2</v>
@@ -2194,26 +1610,11 @@
       <c r="H47">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I47">
-        <v>3.9E-2</v>
-      </c>
-      <c r="J47">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="K47">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="L47">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="M47">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C48">
         <v>-4.8000000000000001E-2</v>
@@ -2233,26 +1634,11 @@
       <c r="H48">
         <v>-1.4E-2</v>
       </c>
-      <c r="I48">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J48">
-        <v>-0.94099999999999995</v>
-      </c>
-      <c r="K48">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="L48">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="M48">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
+      <c r="B49" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C49">
         <v>4.5999999999999999E-2</v>
@@ -2272,26 +1658,11 @@
       <c r="H49">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I49">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J49">
-        <v>0.311</v>
-      </c>
-      <c r="K49">
-        <v>0.755</v>
-      </c>
-      <c r="L49">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="M49">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>20</v>
+      <c r="B50" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2311,28 +1682,13 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1.468</v>
-      </c>
-      <c r="K50">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>-0.91500000000000004</v>
@@ -2350,10 +1706,10 @@
         <v>286.51100000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C52">
         <v>-1.6E-2</v>
@@ -2373,26 +1729,11 @@
       <c r="H52">
         <v>-2E-3</v>
       </c>
-      <c r="I52">
-        <v>1E-3</v>
-      </c>
-      <c r="J52">
-        <v>-3.1349999999999998</v>
-      </c>
-      <c r="K52">
-        <v>2E-3</v>
-      </c>
-      <c r="L52">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="M52">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2412,26 +1753,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>-1.1890000000000001</v>
-      </c>
-      <c r="K53">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
-        <v>17</v>
+      <c r="B54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C54">
         <v>-1.0999999999999999E-2</v>
@@ -2451,26 +1777,11 @@
       <c r="H54">
         <v>-2E-3</v>
       </c>
-      <c r="I54">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="J54">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="K54">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="L54">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="M54">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
-        <v>18</v>
+      <c r="B55" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C55">
         <v>2.3E-2</v>
@@ -2490,26 +1801,11 @@
       <c r="H55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I55">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="J55">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="K55">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="L55">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="M55">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
+      <c r="B56" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C56">
         <v>0.182</v>
@@ -2529,26 +1825,11 @@
       <c r="H56">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I56">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J56">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K56">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="L56">
-        <v>-0.03</v>
-      </c>
-      <c r="M56">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
-      <c r="B57" s="1" t="s">
-        <v>20</v>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2568,28 +1849,13 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>2.254</v>
-      </c>
-      <c r="K57">
-        <v>2.4E-2</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>-1.409</v>
@@ -2607,10 +1873,10 @@
         <v>493.471</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="1" t="s">
-        <v>15</v>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C59">
         <v>3.0000000000000001E-3</v>
@@ -2630,26 +1896,11 @@
       <c r="H59">
         <v>1E-3</v>
       </c>
-      <c r="I59">
-        <v>1E-3</v>
-      </c>
-      <c r="J59">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="K59">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="L59">
-        <v>-1E-3</v>
-      </c>
-      <c r="M59">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2669,26 +1920,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>-0.496</v>
-      </c>
-      <c r="K60">
-        <v>0.62</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="1" t="s">
-        <v>17</v>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C61">
         <v>0.29299999999999998</v>
@@ -2708,26 +1944,11 @@
       <c r="H61">
         <v>7.8E-2</v>
       </c>
-      <c r="I61">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J61">
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="K61">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="L61">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M61">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C62">
         <v>2.7E-2</v>
@@ -2747,26 +1968,11 @@
       <c r="H62">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I62">
-        <v>1.4E-2</v>
-      </c>
-      <c r="J62">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="K62">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="L62">
-        <v>-0.02</v>
-      </c>
-      <c r="M62">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
+      <c r="B63" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C63">
         <v>0.13500000000000001</v>
@@ -2786,26 +1992,11 @@
       <c r="H63">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I63">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J63">
-        <v>0.877</v>
-      </c>
-      <c r="K63">
-        <v>0.38</v>
-      </c>
-      <c r="L63">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="M63">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
-        <v>20</v>
+      <c r="B64" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2825,28 +2016,13 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="K64">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C65">
         <v>-1.411</v>
@@ -2864,10 +2040,10 @@
         <v>339.97699999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
-        <v>15</v>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C66">
         <v>-8.9999999999999993E-3</v>
@@ -2887,26 +2063,11 @@
       <c r="H66">
         <v>-2E-3</v>
       </c>
-      <c r="I66">
-        <v>1E-3</v>
-      </c>
-      <c r="J66">
-        <v>-2.1280000000000001</v>
-      </c>
-      <c r="K66">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="L66">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="1" t="s">
-        <v>16</v>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2926,26 +2087,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>-0.441</v>
-      </c>
-      <c r="K67">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>17</v>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C68">
         <v>0.27300000000000002</v>
@@ -2965,26 +2111,11 @@
       <c r="H68">
         <v>4.7E-2</v>
       </c>
-      <c r="I68">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J68">
-        <v>1.605</v>
-      </c>
-      <c r="K68">
-        <v>0.109</v>
-      </c>
-      <c r="L68">
-        <v>-0.01</v>
-      </c>
-      <c r="M68">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="1" t="s">
-        <v>18</v>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C69">
         <v>8.2000000000000003E-2</v>
@@ -3004,26 +2135,11 @@
       <c r="H69">
         <v>1.4E-2</v>
       </c>
-      <c r="I69">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J69">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="K69">
-        <v>0.188</v>
-      </c>
-      <c r="L69">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="M69">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="1" t="s">
-        <v>19</v>
+      <c r="B70" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C70">
         <v>0.11700000000000001</v>
@@ -3043,26 +2159,11 @@
       <c r="H70">
         <v>0.02</v>
       </c>
-      <c r="I70">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J70">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="K70">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="L70">
-        <v>-4.1000000000000002E-2</v>
-      </c>
-      <c r="M70">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="1" t="s">
-        <v>20</v>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3080,21 +2181,6 @@
         <v>339.97699999999998</v>
       </c>
       <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1.889</v>
-      </c>
-      <c r="K71">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
         <v>0</v>
       </c>
     </row>
